--- a/Artefatos/19. Regras de Negócio.xlsx
+++ b/Artefatos/19. Regras de Negócio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurata\Desktop\EngenhariaRequisitos\Artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\israe\EngenhariaRequisitos\Artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5645C-558E-4F2B-A1F4-E1D9E9A9F00C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A801A7-397B-4E9C-97EB-F41D168C91C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -477,131 +477,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:F18"/>
+  <dimension ref="A3:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="A3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -612,6 +615,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>